--- a/data/trans_camb/P25_10-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P25_10-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>-3,2</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>-1,94</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,78</t>
+          <t>3,08</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-6,76</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,93</t>
+          <t>-5,29</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-4,13</t>
+          <t>6,43</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-2,41</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-4,27</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4,35</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 2,55</t>
+          <t>-8,41; 0,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 2,95</t>
+          <t>-7,27; 2,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,93; 4,0</t>
+          <t>-3,27; 9,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,63; 0,03</t>
+          <t>-9,83; 7,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 2,05</t>
+          <t>-13,96; 3,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,14; -0,06</t>
+          <t>-2,97; 15,46</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-7,63; 2,78</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-9,61; 1,43</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-2,13; 10,66</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-15,56%</t>
+          <t>-45,49%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-9,31%</t>
+          <t>-27,62%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-10,71%</t>
+          <t>43,76%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-26,04%</t>
+          <t>-4,62%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-11,5%</t>
+          <t>-17,99%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-24,63%</t>
+          <t>21,87%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-12,54%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-22,23%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>22,67%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-60,83; 64,16</t>
+          <t>-82,73; 36,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-53,92; 79,68</t>
+          <t>-73,07; 72,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-30,28; 17,1</t>
+          <t>-38,49; 191,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-44,18; 0,46</t>
+          <t>-29,38; 27,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-32,38; 13,35</t>
+          <t>-41,81; 12,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-42,92; -0,54</t>
+          <t>-9,16; 62,34</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-35,0; 17,43</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-44,1; 8,55</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-9,18; 64,56</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-6,76</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-5,94</t>
+          <t>-5,98</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-3,86</t>
+          <t>-4,11</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,98</t>
+          <t>-0,74</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-3,19</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-2,84</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,24</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 3,88</t>
+          <t>-5,13; 7,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 5,48</t>
+          <t>-5,67; 4,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,83; 0,71</t>
+          <t>-4,19; 8,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,96; 2,47</t>
+          <t>-14,34; 1,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 0,34</t>
+          <t>-12,74; 4,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,11; 2,1</t>
+          <t>-10,93; 8,59</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-8,67; 2,25</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-8,3; 2,46</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-5,75; 5,96</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,47%</t>
+          <t>9,92%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>21,58%</t>
+          <t>-6,4%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-24,8%</t>
+          <t>34,59%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-21,82%</t>
+          <t>-26,56%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-22,95%</t>
+          <t>-18,26%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-17,72%</t>
+          <t>-3,29%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-20,94%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-18,63%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1,57%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-55,27; 132,91</t>
+          <t>-54,27; 226,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-37,76; 162,92</t>
+          <t>-61,86; 137,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-44,54; 3,71</t>
+          <t>-48,55; 252,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-44,16; 11,6</t>
+          <t>-52,83; 13,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-43,31; 3,06</t>
+          <t>-48,51; 22,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-41,52; 14,66</t>
+          <t>-41,23; 48,09</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-47,61; 18,48</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-45,56; 19,88</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-31,61; 47,47</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,24</t>
+          <t>-3,41</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-5,3</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-8,4</t>
+          <t>-5,04</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,06</t>
+          <t>-7,01</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-5,24</t>
+          <t>4,51</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-2,34</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-5,2</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,7</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 11,4</t>
+          <t>-12,84; 8,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,98; 8,47</t>
+          <t>-16,71; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-18,01; 7,43</t>
+          <t>-12,95; 6,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-21,33; 3,65</t>
+          <t>-22,9; 12,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 6,47</t>
+          <t>-24,79; 11,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,49; 2,69</t>
+          <t>-14,13; 25,83</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-13,04; 8,35</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-15,83; 4,31</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-10,57; 14,53</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>-0,08%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-32,23%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-25,64%</t>
+          <t>-18,31%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-40,65%</t>
+          <t>-26,18%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-15,3%</t>
+          <t>-36,44%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-38,87%</t>
+          <t>23,45%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-20,86%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-46,42%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>15,13%</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1223,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-86,12; 561,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1037,22 +1233,37 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-69,41; 57,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-75,68; 41,99</t>
+          <t>-82,54; 145,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-60,89; 70,07</t>
+          <t>-87,23; 166,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-77,09; 27,58</t>
+          <t>-55,15; 311,68</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-78,11; 157,28</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-88,78; 97,2</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-63,9; 244,26</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-4,64</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-6,66</t>
+          <t>-3,52</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-2,73</t>
+          <t>-4,98</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-3,81</t>
+          <t>3,55</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-2,69</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-3,78</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>2,5</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 2,1</t>
+          <t>-4,76; 2,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 2,75</t>
+          <t>-5,11; 1,97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,44; -0,26</t>
+          <t>-1,65; 6,54</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,86; -1,67</t>
+          <t>-9,38; 2,31</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 0,07</t>
+          <t>-10,79; 0,63</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,86; -1,01</t>
+          <t>-3,06; 10,51</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-6,46; 1,0</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-7,59; 0,1</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-1,76; 6,99</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-6,57%</t>
+          <t>-19,05%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-1,54%</t>
+          <t>-22,65%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-17,86%</t>
+          <t>36,47%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-25,65%</t>
+          <t>-13,77%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-16,6%</t>
+          <t>-19,47%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-23,23%</t>
+          <t>13,87%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-16,08%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-22,55%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>14,95%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-40,66; 47,61</t>
+          <t>-56,72; 46,26</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-39,51; 62,95</t>
+          <t>-59,26; 44,95</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-32,9; -0,75</t>
+          <t>-22,3; 140,48</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-39,11; -6,95</t>
+          <t>-32,35; 10,4</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-31,49; 0,46</t>
+          <t>-37,93; 3,48</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-38,39; -6,83</t>
+          <t>-11,24; 46,88</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-34,1; 5,45</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-40,44; 0,78</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-9,21; 46,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
